--- a/Manuscript/GIS2015Results/Charts/Approaches.xlsx
+++ b/Manuscript/GIS2015Results/Charts/Approaches.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\RoadNetworks\Manuscript\GIS2015Results\Charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConStaInd" sheetId="13" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="All Approaches" sheetId="22" r:id="rId8"/>
     <sheet name="Selected Approaches" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -66,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +109,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -127,6 +149,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -141,6 +164,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -207,6 +261,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -222,6 +277,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -288,6 +374,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -303,6 +390,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -369,25 +487,43 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="113538176"/>
-        <c:axId val="113540480"/>
+        <c:smooth val="0"/>
+        <c:axId val="317714160"/>
+        <c:axId val="317714944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113538176"/>
+        <c:axId val="317714160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
@@ -397,41 +533,113 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113540480"/>
+        <c:crossAx val="317714944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113540480"/>
+        <c:axId val="317714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -441,23 +649,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113538176"/>
+        <c:crossAx val="317714160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -471,19 +737,61 @@
           <c:h val="0.11689231554389035"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1"/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -494,8 +802,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -512,6 +829,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -526,6 +844,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -592,6 +941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -607,6 +957,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -673,6 +1054,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -688,6 +1070,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -745,34 +1158,46 @@
                 <c:pt idx="5">
                   <c:v>407.30750610403294</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>407.47921003912018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>408.28061594106288</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="138656768"/>
-        <c:axId val="138667136"/>
+        <c:smooth val="0"/>
+        <c:axId val="319777600"/>
+        <c:axId val="319776032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138656768"/>
+        <c:axId val="319777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
@@ -782,42 +1207,114 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138667136"/>
+        <c:crossAx val="319776032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138667136"/>
+        <c:axId val="319776032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -827,23 +1324,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138656768"/>
+        <c:crossAx val="319777600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -857,19 +1412,63 @@
           <c:h val="0.11689231554389036"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1"/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -880,7 +1479,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -899,11 +1508,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -987,6 +1599,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1071,6 +1684,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1155,16 +1769,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121433472"/>
-        <c:axId val="121513472"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319387224"/>
+        <c:axId val="319391144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121433472"/>
+        <c:axId val="319387224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1183,21 +1807,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121513472"/>
+        <c:crossAx val="319391144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121513472"/>
+        <c:axId val="319391144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1217,10 +1845,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121433472"/>
+        <c:crossAx val="319387224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1228,8 +1859,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1241,7 +1875,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1260,11 +1904,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1348,6 +1995,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1432,6 +2080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1516,16 +2165,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121543680"/>
-        <c:axId val="121574528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319388400"/>
+        <c:axId val="319389184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121543680"/>
+        <c:axId val="319388400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1544,21 +2203,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121574528"/>
+        <c:crossAx val="319389184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121574528"/>
+        <c:axId val="319389184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1578,10 +2241,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121543680"/>
+        <c:crossAx val="319388400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,8 +2255,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1602,8 +2271,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1620,6 +2298,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1634,6 +2313,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -1700,6 +2410,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1715,6 +2426,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -1781,6 +2523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1796,6 +2539,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -1862,25 +2636,43 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137447680"/>
-        <c:axId val="137449856"/>
+        <c:smooth val="0"/>
+        <c:axId val="319388792"/>
+        <c:axId val="319390752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137447680"/>
+        <c:axId val="319388792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
@@ -1890,42 +2682,114 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137449856"/>
+        <c:crossAx val="319390752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137449856"/>
+        <c:axId val="319390752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -1935,23 +2799,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137447680"/>
+        <c:crossAx val="319388792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1965,19 +2887,63 @@
           <c:h val="0.11689231554389036"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1"/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -1988,7 +2954,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2006,11 +2982,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2094,6 +3073,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2178,6 +3158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2262,16 +3243,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121703424"/>
-        <c:axId val="121721984"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319389576"/>
+        <c:axId val="319389968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121703424"/>
+        <c:axId val="319389576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2289,21 +3280,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121721984"/>
+        <c:crossAx val="319389968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121721984"/>
+        <c:axId val="319389968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2322,18 +3317,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121703424"/>
+        <c:crossAx val="319389576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2345,7 +3346,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2363,11 +3374,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2451,6 +3465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2535,6 +3550,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2619,16 +3635,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121637504"/>
-        <c:axId val="121639680"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319388008"/>
+        <c:axId val="319391536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121637504"/>
+        <c:axId val="319388008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2646,21 +3672,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121639680"/>
+        <c:crossAx val="319391536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121639680"/>
+        <c:axId val="319391536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2679,18 +3709,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121637504"/>
+        <c:crossAx val="319388008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2702,7 +3738,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2720,11 +3766,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2808,6 +3857,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2892,6 +3942,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2976,16 +4027,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121686656"/>
-        <c:axId val="121770752"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319392320"/>
+        <c:axId val="319386048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121686656"/>
+        <c:axId val="319392320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3003,21 +4064,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121770752"/>
+        <c:crossAx val="319386048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121770752"/>
+        <c:axId val="319386048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3036,18 +4101,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121686656"/>
+        <c:crossAx val="319392320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3059,7 +4130,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3077,11 +4158,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3165,6 +4249,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3249,6 +4334,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3333,16 +4419,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121796864"/>
-        <c:axId val="121815424"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319386440"/>
+        <c:axId val="356651832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121796864"/>
+        <c:axId val="319386440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3360,21 +4456,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121815424"/>
+        <c:crossAx val="356651832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121815424"/>
+        <c:axId val="356651832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3393,18 +4493,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121796864"/>
+        <c:crossAx val="319386440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3416,7 +4522,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3434,12 +4550,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3454,6 +4573,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -3522,6 +4642,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -3590,6 +4711,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -3644,28 +4766,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121964800"/>
-        <c:axId val="121974784"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356648304"/>
+        <c:axId val="356652224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121964800"/>
+        <c:axId val="356648304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121974784"/>
+        <c:crossAx val="356652224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121974784"/>
+        <c:axId val="356652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3684,18 +4820,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121964800"/>
+        <c:crossAx val="356648304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3707,7 +4849,17 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3725,12 +4877,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3745,6 +4900,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -3813,6 +4969,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -3881,6 +5038,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -3935,28 +5093,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121996800"/>
-        <c:axId val="121998336"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356649872"/>
+        <c:axId val="356645952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121996800"/>
+        <c:axId val="356649872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121998336"/>
+        <c:crossAx val="356645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121998336"/>
+        <c:axId val="356645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3975,18 +5147,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121996800"/>
+        <c:crossAx val="356649872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3998,7 +5176,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4017,11 +5205,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4105,6 +5296,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4189,6 +5381,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4273,16 +5466,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114455680"/>
-        <c:axId val="114457600"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="317710632"/>
+        <c:axId val="317712592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114455680"/>
+        <c:axId val="317710632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4306,21 +5509,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114457600"/>
+        <c:crossAx val="317712592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114457600"/>
+        <c:axId val="317712592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4340,10 +5547,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114455680"/>
+        <c:crossAx val="317710632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4351,8 +5561,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4364,7 +5577,17 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4382,12 +5605,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4402,6 +5628,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -4470,6 +5697,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -4538,6 +5766,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -4592,28 +5821,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122123008"/>
-        <c:axId val="122124544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356648696"/>
+        <c:axId val="356650264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122123008"/>
+        <c:axId val="356648696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122124544"/>
+        <c:crossAx val="356650264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122124544"/>
+        <c:axId val="356650264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4632,18 +5875,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122123008"/>
+        <c:crossAx val="356648696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4655,13 +5904,25 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4676,6 +5937,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$S$10:$X$10</c:f>
@@ -4744,6 +6006,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$S$10:$X$10</c:f>
@@ -4798,41 +6061,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="122145792"/>
-        <c:axId val="122155776"/>
+        <c:axId val="356647520"/>
+        <c:axId val="356647128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122145792"/>
+        <c:axId val="356647520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122155776"/>
+        <c:crossAx val="356647128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122155776"/>
+        <c:axId val="356647128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122145792"/>
+        <c:crossAx val="356647520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4844,13 +6127,25 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4865,6 +6160,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -4946,6 +6242,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -5027,6 +6324,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -5108,6 +6406,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -5189,6 +6488,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -5270,6 +6570,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -5351,6 +6652,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'All Approaches'!$B$17:$I$17</c:f>
@@ -5385,42 +6687,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122082432"/>
-        <c:axId val="122083968"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356651440"/>
+        <c:axId val="356647912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122082432"/>
+        <c:axId val="356651440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122083968"/>
+        <c:crossAx val="356647912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122083968"/>
+        <c:axId val="356647912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122082432"/>
+        <c:crossAx val="356651440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5432,13 +6752,25 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5453,6 +6785,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5534,6 +6867,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5615,6 +6949,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5696,6 +7031,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5777,6 +7113,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5858,6 +7195,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -5939,6 +7277,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -6006,42 +7345,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122190464"/>
-        <c:axId val="122212736"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356650656"/>
+        <c:axId val="356644776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122190464"/>
+        <c:axId val="356650656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122212736"/>
+        <c:crossAx val="356644776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122212736"/>
+        <c:axId val="356644776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122190464"/>
+        <c:crossAx val="356650656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6053,8 +7410,17 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -6072,6 +7438,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6086,6 +7453,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -6167,6 +7544,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -6248,6 +7639,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -6329,6 +7734,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -6410,6 +7825,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -6477,24 +7906,40 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="136221056"/>
-        <c:axId val="136222592"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356685784"/>
+        <c:axId val="356689704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136221056"/>
+        <c:axId val="356685784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
@@ -6504,41 +7949,113 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136222592"/>
+        <c:crossAx val="356689704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136222592"/>
+        <c:axId val="356689704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -6548,23 +8065,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136221056"/>
+        <c:crossAx val="356685784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -6574,10 +8149,11 @@
           <c:yMode val="edge"/>
           <c:x val="0.101682250656168"/>
           <c:y val="6.2063395921663642E-2"/>
-          <c:w val="0.29117489220097487"/>
-          <c:h val="0.29170375442200158"/>
+          <c:w val="0.55307965410573678"/>
+          <c:h val="0.14454656378655006"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -6587,20 +8163,57 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1"/>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -6611,13 +8224,25 @@
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6632,6 +8257,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -6713,6 +8339,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -6794,6 +8421,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -6875,6 +8503,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -6956,6 +8585,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -7023,33 +8653,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136464256"/>
-        <c:axId val="136465792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="356686176"/>
+        <c:axId val="356688920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136464256"/>
+        <c:axId val="356686176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136465792"/>
+        <c:crossAx val="356688920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136465792"/>
+        <c:axId val="356688920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136464256"/>
+        <c:crossAx val="356686176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7057,8 +8703,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7070,7 +8719,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7089,11 +8748,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7177,6 +8839,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7261,6 +8924,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7345,16 +9009,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114496640"/>
-        <c:axId val="114498560"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="317711416"/>
+        <c:axId val="317711808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114496640"/>
+        <c:axId val="317711416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7373,21 +9047,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114498560"/>
+        <c:crossAx val="317711808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114498560"/>
+        <c:axId val="317711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7407,10 +9085,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114496640"/>
+        <c:crossAx val="317711416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7418,8 +9099,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7431,7 +9115,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7450,11 +9144,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7538,6 +9235,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7622,6 +9320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7706,16 +9405,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114545408"/>
-        <c:axId val="114547328"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319777208"/>
+        <c:axId val="319773288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114545408"/>
+        <c:axId val="319777208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7734,21 +9443,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114547328"/>
+        <c:crossAx val="319773288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114547328"/>
+        <c:axId val="319773288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7768,10 +9481,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114545408"/>
+        <c:crossAx val="319777208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7779,8 +9495,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7792,8 +9511,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7810,6 +9538,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7824,6 +9553,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -7890,6 +9650,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7905,6 +9666,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -7971,6 +9763,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7986,6 +9779,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ConStaInd!$B$10:$I$10</c:f>
@@ -8052,25 +9876,43 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="124716160"/>
-        <c:axId val="124718080"/>
+        <c:smooth val="0"/>
+        <c:axId val="319770544"/>
+        <c:axId val="319770936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124716160"/>
+        <c:axId val="319770544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
@@ -8080,41 +9922,113 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124718080"/>
+        <c:crossAx val="319770936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124718080"/>
+        <c:axId val="319770936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -8124,23 +10038,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124716160"/>
+        <c:crossAx val="319770544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -8154,19 +10126,63 @@
           <c:h val="0.11689231554389036"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1"/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -8177,7 +10193,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8196,11 +10222,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8284,6 +10313,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8368,6 +10398,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8443,25 +10474,29 @@
                 <c:pt idx="5">
                   <c:v>407.30750610403294</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>407.47921003912018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>408.28061594106288</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121246464"/>
-        <c:axId val="121248384"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319771720"/>
+        <c:axId val="319772112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121246464"/>
+        <c:axId val="319771720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8480,21 +10515,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121248384"/>
+        <c:crossAx val="319772112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121248384"/>
+        <c:axId val="319772112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8514,10 +10553,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121246464"/>
+        <c:crossAx val="319771720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8525,8 +10567,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8538,7 +10583,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8557,11 +10612,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8645,6 +10703,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8729,6 +10788,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8813,16 +10873,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121307520"/>
-        <c:axId val="121309440"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319772504"/>
+        <c:axId val="319774072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121307520"/>
+        <c:axId val="319772504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8841,21 +10911,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121309440"/>
+        <c:crossAx val="319774072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121309440"/>
+        <c:axId val="319774072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8875,10 +10949,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121307520"/>
+        <c:crossAx val="319772504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8886,8 +10963,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8899,7 +10979,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8918,11 +11008,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9006,6 +11099,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9090,6 +11184,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9174,16 +11269,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121348096"/>
-        <c:axId val="121350016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319772896"/>
+        <c:axId val="319774464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121348096"/>
+        <c:axId val="319772896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -9202,21 +11307,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121350016"/>
+        <c:crossAx val="319774464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121350016"/>
+        <c:axId val="319774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -9236,10 +11345,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121348096"/>
+        <c:crossAx val="319772896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9247,8 +11359,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9260,7 +11375,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -9279,11 +11404,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9367,6 +11495,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9451,6 +11580,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9535,16 +11665,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121388416"/>
-        <c:axId val="121398784"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319775248"/>
+        <c:axId val="319776816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121388416"/>
+        <c:axId val="319775248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -9563,21 +11703,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121398784"/>
+        <c:crossAx val="319776816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121398784"/>
+        <c:axId val="319776816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -9597,10 +11741,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121388416"/>
+        <c:crossAx val="319775248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9608,8 +11755,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9617,6 +11767,2406 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10353,16 +14903,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10457,7 +15007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10489,9 +15039,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10523,6 +15074,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10698,16 +15250,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10733,7 +15285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10762,7 +15314,7 @@
         <v>450.53983306685956</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10791,7 +15343,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10820,7 +15372,7 @@
         <v>450.60780938239748</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -10846,7 +15398,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10875,7 +15427,7 @@
         <v>591.69351893662497</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -10904,7 +15456,7 @@
         <v>509.58791708339032</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -10940,16 +15492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10975,7 +15527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11004,7 +15556,7 @@
         <v>451.2339909735303</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11033,7 +15585,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11062,7 +15614,7 @@
         <v>451.22278715240282</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11088,7 +15640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11117,7 +15669,7 @@
         <v>591.8873034615134</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11146,7 +15698,7 @@
         <v>509.86622282379221</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11182,16 +15734,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -11220,7 +15772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +15801,7 @@
         <v>408.74208007519468</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11278,7 +15830,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11300,14 +15852,8 @@
       <c r="G13">
         <v>407.30750610403294</v>
       </c>
-      <c r="H13">
-        <v>407.47921003912018</v>
-      </c>
-      <c r="I13">
-        <v>408.28061594106288</v>
-      </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11333,7 +15879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11362,7 +15908,7 @@
         <v>535.55709742325826</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11391,7 +15937,7 @@
         <v>456.42486875272857</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11427,16 +15973,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -11462,7 +16008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11491,7 +16037,7 @@
         <v>448.82173942281412</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11520,7 +16066,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11549,7 +16095,7 @@
         <v>448.88836986428129</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11575,7 +16121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11604,7 +16150,7 @@
         <v>591.69351893662508</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11633,7 +16179,7 @@
         <v>509.58266524792873</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11669,16 +16215,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -11704,7 +16250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11733,7 +16279,7 @@
         <v>811.09002019563889</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11762,7 +16308,7 @@
         <v>658.74443395357991</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +16337,7 @@
         <v>810.79430926649093</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11817,7 +16363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11846,7 +16392,7 @@
         <v>1091.8041743046356</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11875,7 +16421,7 @@
         <v>877.81597589033481</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11911,16 +16457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -11946,7 +16492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11975,7 +16521,7 @@
         <v>606.66653536309707</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -12004,7 +16550,7 @@
         <v>533.10311103878337</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12033,7 +16579,7 @@
         <v>607.1933689388851</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -12059,7 +16605,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -12088,7 +16634,7 @@
         <v>816.63075519113829</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -12117,7 +16663,7 @@
         <v>710.39147132992639</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -12146,7 +16692,7 @@
         <v>817.89931598103465</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B18/B11</f>
         <v>1.34609494275529</v>
@@ -12180,7 +16726,7 @@
         <v>1.34609494275529</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ref="B23:I24" si="1">B19/B12</f>
         <v>1.2745157925032542</v>
@@ -12214,7 +16760,7 @@
         <v>1.3325592303254168</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>1.144154811109281</v>
@@ -12255,19 +16801,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -12305,7 +16851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -12349,7 +16895,7 @@
         <v>20.971052</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -12393,7 +16939,7 @@
         <v>13.365028000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12416,7 +16962,7 @@
         <v>54.685147000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -12436,7 +16982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -12459,7 +17005,7 @@
         <v>32.044570999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -12482,7 +17028,7 @@
         <v>13.365028000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -12505,7 +17051,7 @@
         <v>15.655319</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -12525,7 +17071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -12548,7 +17094,7 @@
         <v>78.721714000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -12571,7 +17117,7 @@
         <v>34.270905999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -12601,19 +17147,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -12639,7 +17185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -12668,7 +17214,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -12697,7 +17243,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +17272,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -12755,7 +17301,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -12784,7 +17330,7 @@
         <v>658.74443395357991</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -12813,7 +17359,7 @@
         <v>533.10311103878337</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -12842,7 +17388,7 @@
         <v>859.53385054191176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -12868,7 +17414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -12897,7 +17443,7 @@
         <v>509.58791708339032</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -12926,7 +17472,7 @@
         <v>509.86622282379221</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -12955,7 +17501,7 @@
         <v>456.42486875272857</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -12984,7 +17530,7 @@
         <v>509.58266524792873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -13013,7 +17559,7 @@
         <v>877.81597589033481</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -13042,7 +17588,7 @@
         <v>710.39147132992639</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -13078,19 +17624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -13116,7 +17662,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -13145,7 +17691,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -13174,7 +17720,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -13203,7 +17749,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -13232,7 +17778,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -13261,7 +17807,7 @@
         <v>859.53385054191176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -13287,7 +17833,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -13316,7 +17862,7 @@
         <v>509.58791708339032</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -13345,7 +17891,7 @@
         <v>509.86622282379221</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -13374,7 +17920,7 @@
         <v>456.42486875272857</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -13403,7 +17949,7 @@
         <v>509.58266524792873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
